--- a/exceltk0.0.4/1.xlsx
+++ b/exceltk0.0.4/1.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\10Markdown\托福\exceltk0.0.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\10知识体系\托福\exceltk0.0.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,196 +26,262 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
-  <si>
-    <t>fiery intense</t>
-  </si>
-  <si>
-    <t>obligation/liability/responsibility</t>
-  </si>
-  <si>
-    <t>have an efffect/exert an influence on/generate an impact on</t>
-  </si>
-  <si>
-    <t>significant == tremendous == enormous == immense == numerous == colossal amounts of == a myriad of == a host of == a mulititude of</t>
-  </si>
-  <si>
-    <t>pay attention to == attach importance to == put emphasis on == give high value on == cherish == treasure</t>
-  </si>
-  <si>
-    <t>resolve == solve == address == tackle == cope with == grapple with == the solution to == the remedy to</t>
-  </si>
-  <si>
-    <t>ignore == neglect == overlook == fail to see == turn a deaf ear to == turn a blind eye to</t>
-  </si>
-  <si>
-    <t>broaden/expend/widen one's horizon/outlook/view/vision</t>
-  </si>
-  <si>
-    <t>anything but</t>
-  </si>
-  <si>
-    <t>seniors</t>
-  </si>
-  <si>
-    <t>ignorance of</t>
-  </si>
-  <si>
-    <t>I am left no time to ...</t>
-  </si>
-  <si>
-    <t>repel</t>
-  </si>
-  <si>
-    <t>repulsion</t>
-  </si>
-  <si>
-    <t>never say uncle</t>
-  </si>
-  <si>
-    <t>people == individuals == the public</t>
-  </si>
-  <si>
-    <t>high school leavers</t>
-  </si>
-  <si>
-    <t>sway</t>
-  </si>
-  <si>
-    <t>have implications on == have repercussions on；exert/generate/have a strong impact on</t>
-  </si>
-  <si>
-    <t>profound</t>
-  </si>
-  <si>
-    <t>primary == elementary school</t>
-  </si>
-  <si>
-    <t>be competent in == be qualified for</t>
-  </si>
-  <si>
-    <t>commence == begin == initiate == embark on</t>
-  </si>
-  <si>
-    <t>job == work == occupation == profession</t>
-  </si>
-  <si>
-    <t>compulsory == mandatory == compel （n.compulsion）</t>
-  </si>
-  <si>
-    <t>develop == cultivate == foster == nurture</t>
-  </si>
-  <si>
-    <t>face up to == be faced/confronted/encounter with</t>
-  </si>
-  <si>
-    <t>grade == academic performance</t>
-  </si>
-  <si>
-    <t>diploma == academic qualification</t>
-  </si>
-  <si>
-    <t>many == a great many</t>
-  </si>
-  <si>
-    <t>occupy == take up</t>
-  </si>
-  <si>
-    <t>use/utilize/with</t>
-  </si>
-  <si>
-    <t>激烈</t>
-  </si>
-  <si>
-    <t>责任</t>
-  </si>
-  <si>
-    <t>影响</t>
-  </si>
-  <si>
-    <t>数量多的</t>
-  </si>
-  <si>
-    <t>重视</t>
-  </si>
-  <si>
-    <t>解决</t>
-  </si>
-  <si>
-    <t>忽视</t>
-  </si>
-  <si>
-    <t>开拓眼界</t>
-  </si>
-  <si>
-    <t>根本不</t>
-  </si>
-  <si>
-    <t>老年人</t>
-  </si>
-  <si>
-    <t>不知道</t>
-  </si>
-  <si>
-    <t>我没有时间</t>
-  </si>
-  <si>
-    <t>击退</t>
-  </si>
-  <si>
-    <t>排斥力，反感</t>
-  </si>
-  <si>
-    <t>不认输/叫爸爸</t>
-  </si>
-  <si>
-    <t>人们</t>
-  </si>
-  <si>
-    <t>高中毕业生</t>
-  </si>
-  <si>
-    <t>摇摆（影响）</t>
-  </si>
-  <si>
-    <t>深远的</t>
-  </si>
-  <si>
-    <t>小学</t>
-  </si>
-  <si>
-    <t>有能力</t>
-  </si>
-  <si>
-    <t>开始</t>
-  </si>
-  <si>
-    <t>工作</t>
-  </si>
-  <si>
-    <t>强制的</t>
-  </si>
-  <si>
-    <t>培养</t>
-  </si>
-  <si>
-    <t>面对</t>
-  </si>
-  <si>
-    <t>成绩，在校表现</t>
-  </si>
-  <si>
-    <t>文凭</t>
-  </si>
-  <si>
-    <t>许多</t>
-  </si>
-  <si>
-    <t>占领</t>
-  </si>
-  <si>
-    <t>利用</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>濒危的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in danger = peril = hazard = at risk</t>
+  </si>
+  <si>
+    <t>适应环境</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acclimate/adapt/accommodate to the environment</t>
+  </si>
+  <si>
+    <t>有利的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> do good to = be good for = be beneficial to = be conducive to</t>
+  </si>
+  <si>
+    <t>缺少</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lack of/lack water/be short of/scarce/be laking in/dearth of/scarcity of</t>
+  </si>
+  <si>
+    <t>赞同</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> favor = favorable = be in favor of = side with</t>
+  </si>
+  <si>
+    <t>不利的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> disadvantageous = unfavorable</t>
+  </si>
+  <si>
+    <t>威胁</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> threaten/pose a threat to</t>
+  </si>
+  <si>
+    <t>温室效应</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> greenhouse effort = global warming</t>
+  </si>
+  <si>
+    <t>刺鼻的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acrid</t>
+  </si>
+  <si>
+    <t>窒息</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> choke/smother</t>
+  </si>
+  <si>
+    <t>雾霾</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smoke+fog = smog</t>
+  </si>
+  <si>
+    <t>呼吸</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> respiratory</t>
+  </si>
+  <si>
+    <t>砍伐森林</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deforest/deforestation/lumber/felling</t>
+  </si>
+  <si>
+    <t>水土流失</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> water loss and soil erosion</t>
+  </si>
+  <si>
+    <t>保护</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> safe guard/protect/preserve/conserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生态平衡 </t>
+  </si>
+  <si>
+    <t>ecological balance/equilibrium</t>
+  </si>
+  <si>
+    <t>打破</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> disruption of</t>
+  </si>
+  <si>
+    <t>环保能源</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hydro electric 水电/tidal energy 潮汐能/wind energy风能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不环保的能源 </t>
+  </si>
+  <si>
+    <t>fossil fuels/high-polluting fuels/coal/natural gas/oil</t>
+  </si>
+  <si>
+    <t>造成危害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inflict damage on/cause damage to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果 </t>
+  </si>
+  <si>
+    <t>If = Assuming that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吃 </t>
+  </si>
+  <si>
+    <t>eat = dine = consume = feed</t>
+  </si>
+  <si>
+    <t>有道理,说得对</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> make sense</t>
+  </si>
+  <si>
+    <t>感觉/意识/道理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多种的 </t>
+  </si>
+  <si>
+    <t>multifold = varied = diverse</t>
+  </si>
+  <si>
+    <t>方面</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aspect = facet</t>
+  </si>
+  <si>
+    <t>想要</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aspire for/want/yearn for</t>
+  </si>
+  <si>
+    <t>具有</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> possess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尽力做某事 </t>
+  </si>
+  <si>
+    <t>try one's best = do one's almost to do ... = go all out to do ...</t>
+  </si>
+  <si>
+    <t>污染物</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pollution</t>
+  </si>
+  <si>
+    <t>中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多的，丰富的</t>
+  </si>
+  <si>
+    <t>好的</t>
+  </si>
+  <si>
+    <t>psy-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知识 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> benefaction 慈善，善行</t>
+  </si>
+  <si>
+    <t>hydro-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 水</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 直的，正确的</t>
+  </si>
+  <si>
+    <t>’-ous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bene- </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rect-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2排放 </t>
+  </si>
+  <si>
+    <t>emissions of carbon dioxide</t>
+  </si>
+  <si>
+    <t>臭氧层空洞</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ozone hole</t>
+  </si>
+  <si>
+    <t>理性地应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exercise of reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">障碍/缺陷 </t>
+  </si>
+  <si>
+    <t>handicap</t>
   </si>
   <si>
     <t>中文</t>
@@ -613,276 +681,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -890,4 +942,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>